--- a/股票池的处理/股票池代码整理文档.xlsx
+++ b/股票池的处理/股票池代码整理文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15000" windowHeight="7515"/>
+    <workbookView windowWidth="19665" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="3">
   <si>
     <t>(</t>
   </si>
@@ -30,9 +30,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -44,16 +44,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -68,13 +105,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -89,38 +128,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -135,54 +181,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,85 +197,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,97 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,6 +388,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -409,6 +418,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -420,6 +444,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,21 +475,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -468,173 +488,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -961,17 +961,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3267</v>
+        <v>3258</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -984,12 +984,12 @@
       </c>
       <c r="E1" t="str">
         <f>(B1&amp;A1&amp;C1)</f>
-        <v>(3267,</v>
+        <v>(3258,</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>3655</v>
+        <v>6861</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="E2" t="str">
         <f>E1&amp;A2&amp;C2</f>
-        <v>(3267,3655,</v>
+        <v>(3258,6861,</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>4783</v>
+        <v>4182</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1020,12 +1020,12 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E34" si="0">E2&amp;A3&amp;C3</f>
-        <v>(3267,3655,4783,</v>
+        <v>(3258,6861,4182,</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>5271</v>
+        <v>5706</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1038,12 +1038,12 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>(3267,3655,4783,5271,</v>
+        <v>(3258,6861,4182,5706,</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>5363</v>
+        <v>8035</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -1056,12 +1056,12 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>(3267,3655,4783,5271,5363,</v>
+        <v>(3258,6861,4182,5706,8035,</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>6121</v>
+        <v>3003</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -1074,12 +1074,12 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>(3267,3655,4783,5271,5363,6121,</v>
+        <v>(3258,6861,4182,5706,8035,3003,</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>6417</v>
+        <v>5713</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -1092,12 +1092,12 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>(3267,3655,4783,5271,5363,6121,6417,</v>
+        <v>(3258,6861,4182,5706,8035,3003,5713,</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>6513</v>
+        <v>4004</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -1110,12 +1110,12 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>(3267,3655,4783,5271,5363,6121,6417,6513,</v>
+        <v>(3258,6861,4182,5706,8035,3003,5713,4004,</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>6815</v>
+        <v>9983</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -1128,12 +1128,12 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>(3267,3655,4783,5271,5363,6121,6417,6513,6815,</v>
+        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>6998</v>
+        <v>1824</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -1146,12 +1146,12 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>(3267,3655,4783,5271,5363,6121,6417,6513,6815,6998,</v>
+        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>7172</v>
+        <v>6632</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -1164,12 +1164,12 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>(3267,3655,4783,5271,5363,6121,6417,6513,6815,6998,7172,</v>
+        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>7537</v>
+        <v>5702</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -1182,12 +1182,12 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>(3267,3655,4783,5271,5363,6121,6417,6513,6815,6998,7172,7537,</v>
+        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>7731</v>
+        <v>9766</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -1200,12 +1200,12 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>(3267,3655,4783,5271,5363,6121,6417,6513,6815,6998,7172,7537,7731,</v>
+        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>8699</v>
+        <v>9684</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -1218,12 +1218,12 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>(3267,3655,4783,5271,5363,6121,6417,6513,6815,6998,7172,7537,7731,8699,</v>
+        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>9828</v>
+        <v>6268</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -1236,7 +1236,169 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>(3267,3655,4783,5271,5363,6121,6417,6513,6815,6998,7172,7537,7731,8699,9828,</v>
+        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,6268,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>6058</v>
+      </c>
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" ref="E16:E24" si="1">E15&amp;A16&amp;C16</f>
+        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,6268,6058,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>8909</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,6268,6058,8909,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>7806</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,6268,6058,8909,7806,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>2127</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,6268,6058,8909,7806,2127,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>8032</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,6268,6058,8909,7806,2127,8032,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>3092</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,6268,6058,8909,7806,2127,8032,3092,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>2928</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,6268,6058,8909,7806,2127,8032,3092,2928,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>4506</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,6268,6058,8909,7806,2127,8032,3092,2928,4506,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>4921</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,6268,6058,8909,7806,2127,8032,3092,2928,4506,4921,</v>
       </c>
     </row>
   </sheetData>

--- a/股票池的处理/股票池代码整理文档.xlsx
+++ b/股票池的处理/股票池代码整理文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19665" windowHeight="7515"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="3">
   <si>
     <t>(</t>
   </si>
@@ -30,12 +30,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,13 +44,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -66,6 +66,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -74,21 +164,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -97,11 +172,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,80 +187,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -197,187 +203,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,63 +394,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,6 +423,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -488,211 +461,247 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -961,17 +970,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1">
-        <v>3258</v>
+    <row r="1" ht="16.5" spans="1:5">
+      <c r="A1" s="1">
+        <v>4519</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -984,12 +993,12 @@
       </c>
       <c r="E1" t="str">
         <f>(B1&amp;A1&amp;C1)</f>
-        <v>(3258,</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>6861</v>
+        <v>(4519,</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:5">
+      <c r="A2" s="1">
+        <v>7004</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1002,12 +1011,12 @@
       </c>
       <c r="E2" t="str">
         <f>E1&amp;A2&amp;C2</f>
-        <v>(3258,6861,</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>4182</v>
+        <v>(4519,7004,</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:5">
+      <c r="A3" s="1">
+        <v>1909</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1020,12 +1029,12 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E34" si="0">E2&amp;A3&amp;C3</f>
-        <v>(3258,6861,4182,</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>5706</v>
+        <v>(4519,7004,1909,</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:5">
+      <c r="A4" s="1">
+        <v>9873</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -1038,12 +1047,12 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>(3258,6861,4182,5706,</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>8035</v>
+        <v>(4519,7004,1909,9873,</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:5">
+      <c r="A5" s="1">
+        <v>5922</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -1056,12 +1065,12 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>(3258,6861,4182,5706,8035,</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>3003</v>
+        <v>(4519,7004,1909,9873,5922,</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:5">
+      <c r="A6" s="1">
+        <v>8747</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -1074,12 +1083,12 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>(3258,6861,4182,5706,8035,3003,</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>5713</v>
+        <v>(4519,7004,1909,9873,5922,8747,</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:5">
+      <c r="A7" s="1">
+        <v>5410</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -1092,12 +1101,12 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>(3258,6861,4182,5706,8035,3003,5713,</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>4004</v>
+        <v>(4519,7004,1909,9873,5922,8747,5410,</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:5">
+      <c r="A8" s="1">
+        <v>5440</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -1110,12 +1119,12 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>(3258,6861,4182,5706,8035,3003,5713,4004,</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>9983</v>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:5">
+      <c r="A9" s="1">
+        <v>1885</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -1128,12 +1137,12 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>1824</v>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:5">
+      <c r="A10" s="1">
+        <v>3941</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -1146,12 +1155,12 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>6632</v>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:5">
+      <c r="A11" s="1">
+        <v>6920</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -1164,12 +1173,12 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>5702</v>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:5">
+      <c r="A12" s="1">
+        <v>9629</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -1182,12 +1191,12 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>9766</v>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:5">
+      <c r="A13" s="1">
+        <v>7518</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
@@ -1200,12 +1209,12 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>9684</v>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:5">
+      <c r="A14" s="1">
+        <v>1419</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -1218,12 +1227,12 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>6268</v>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:5">
+      <c r="A15" s="1">
+        <v>3107</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
@@ -1236,12 +1245,12 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,6268,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>6058</v>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:5">
+      <c r="A16" s="1">
+        <v>4996</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
@@ -1254,12 +1263,12 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" ref="E16:E24" si="1">E15&amp;A16&amp;C16</f>
-        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,6268,6058,</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>8909</v>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:5">
+      <c r="A17" s="1">
+        <v>6368</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -1272,12 +1281,12 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="1"/>
-        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,6268,6058,8909,</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>7806</v>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,6368,</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:5">
+      <c r="A18" s="1">
+        <v>6754</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
@@ -1290,12 +1299,12 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="1"/>
-        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,6268,6058,8909,7806,</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>2127</v>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,6368,6754,</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:5">
+      <c r="A19" s="1">
+        <v>4832</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
@@ -1308,12 +1317,12 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="1"/>
-        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,6268,6058,8909,7806,2127,</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>8032</v>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,6368,6754,4832,</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:5">
+      <c r="A20" s="1">
+        <v>9889</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
@@ -1326,12 +1335,12 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="1"/>
-        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,6268,6058,8909,7806,2127,8032,</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>3092</v>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,6368,6754,4832,9889,</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:5">
+      <c r="A21" s="1">
+        <v>3769</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -1344,12 +1353,12 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
-        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,6268,6058,8909,7806,2127,8032,3092,</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22">
-        <v>2928</v>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,6368,6754,4832,9889,3769,</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:5">
+      <c r="A22" s="1">
+        <v>8356</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -1362,12 +1371,12 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="1"/>
-        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,6268,6058,8909,7806,2127,8032,3092,2928,</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>4506</v>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,6368,6754,4832,9889,3769,8356,</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="1:5">
+      <c r="A23" s="1">
+        <v>8524</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
@@ -1380,12 +1389,12 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="1"/>
-        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,6268,6058,8909,7806,2127,8032,3092,2928,4506,</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24">
-        <v>4921</v>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,6368,6754,4832,9889,3769,8356,8524,</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="1:5">
+      <c r="A24" s="1">
+        <v>2130</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -1398,7 +1407,241 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="1"/>
-        <v>(3258,6861,4182,5706,8035,3003,5713,4004,9983,1824,6632,5702,9766,9684,6268,6058,8909,7806,2127,8032,3092,2928,4506,4921,</v>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,6368,6754,4832,9889,3769,8356,8524,2130,</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:5">
+      <c r="A25" s="1">
+        <v>9783</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" ref="E25:E37" si="2">E24&amp;A25&amp;C25</f>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,6368,6754,4832,9889,3769,8356,8524,2130,9783,</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:5">
+      <c r="A26" s="1">
+        <v>3254</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="2"/>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,6368,6754,4832,9889,3769,8356,8524,2130,9783,3254,</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:5">
+      <c r="A27" s="1">
+        <v>4848</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="2"/>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,6368,6754,4832,9889,3769,8356,8524,2130,9783,3254,4848,</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:5">
+      <c r="A28" s="1">
+        <v>3186</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="2"/>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,6368,6754,4832,9889,3769,8356,8524,2130,9783,3254,4848,3186,</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="1:5">
+      <c r="A29" s="1">
+        <v>1946</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="2"/>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,6368,6754,4832,9889,3769,8356,8524,2130,9783,3254,4848,3186,1946,</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="1:5">
+      <c r="A30" s="1">
+        <v>3479</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="2"/>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,6368,6754,4832,9889,3769,8356,8524,2130,9783,3254,4848,3186,1946,3479,</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="1:5">
+      <c r="A31" s="1">
+        <v>2445</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="2"/>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,6368,6754,4832,9889,3769,8356,8524,2130,9783,3254,4848,3186,1946,3479,2445,</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="1:5">
+      <c r="A32" s="1">
+        <v>8111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="2"/>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,6368,6754,4832,9889,3769,8356,8524,2130,9783,3254,4848,3186,1946,3479,2445,8111,</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="1:5">
+      <c r="A33" s="1">
+        <v>6677</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="2"/>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,6368,6754,4832,9889,3769,8356,8524,2130,9783,3254,4848,3186,1946,3479,2445,8111,6677,</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="1:5">
+      <c r="A34" s="1">
+        <v>2685</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="2"/>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,6368,6754,4832,9889,3769,8356,8524,2130,9783,3254,4848,3186,1946,3479,2445,8111,6677,2685,</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="1:5">
+      <c r="A35" s="1">
+        <v>9742</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="2"/>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,6368,6754,4832,9889,3769,8356,8524,2130,9783,3254,4848,3186,1946,3479,2445,8111,6677,2685,9742,</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="1:5">
+      <c r="A36" s="1">
+        <v>6035</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="2"/>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,6368,6754,4832,9889,3769,8356,8524,2130,9783,3254,4848,3186,1946,3479,2445,8111,6677,2685,9742,6035,</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="1:5">
+      <c r="A37" s="1">
+        <v>4483</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="2"/>
+        <v>(4519,7004,1909,9873,5922,8747,5410,5440,1885,3941,6920,9629,7518,1419,3107,4996,6368,6754,4832,9889,3769,8356,8524,2130,9783,3254,4848,3186,1946,3479,2445,8111,6677,2685,9742,6035,4483,</v>
       </c>
     </row>
   </sheetData>
